--- a/main_results/eval_pb_note.xlsx
+++ b/main_results/eval_pb_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.269.55310"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>dataset</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>winograd(commonsense)</t>
+  </si>
+  <si>
+    <t>singleq</t>
   </si>
 </sst>
 </file>
@@ -1637,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView topLeftCell="A57" tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1663,18 +1666,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.500000" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="0" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0">
-        <v>0.876923076923076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.500000" hidden="1">
@@ -1691,9 +1694,9 @@
         <v>0.871794871794871</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.500000" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -1702,21 +1705,21 @@
         <v>34</v>
       </c>
       <c r="D4" s="0">
-        <v>0.871794871794871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.500000" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0">
-        <v>0.871794871794871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.500000" hidden="1">
@@ -1775,32 +1778,32 @@
         <v>0.841025641025641</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.500000" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0">
-        <v>0.866666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.500000" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0">
-        <v>0.866666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.500000" hidden="1">
@@ -1831,18 +1834,18 @@
         <v>0.866666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.500000" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0">
-        <v>0.866666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.500000" hidden="1">
@@ -1859,46 +1862,46 @@
         <v>0.856410256410256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.500000" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0">
-        <v>0.92822966507177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.500000" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="0">
-        <v>0.92822966507177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" s="0">
-        <v>0.937799043062201</v>
+        <v>0.994117647058823</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.500000" hidden="1">
@@ -1957,32 +1960,32 @@
         <v>0.909090909090909</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.500000" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="0" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.994117647058823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="0">
-        <v>0.918660287081339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="0">
-        <v>0.942583732057416</v>
+        <v>0.994117647058823</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.500000" hidden="1">
@@ -2041,51 +2044,51 @@
         <v>0.889952153110047</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.500000" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="0" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.994117647058823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="0">
-        <v>0.933014354066985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D30" s="0">
-        <v>0.977859778597786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.994117647058823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D31" s="0">
-        <v>0.974169741697417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>4</v>
@@ -2094,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="0">
-        <v>0.970479704797047</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.500000" hidden="1">
@@ -2153,32 +2156,32 @@
         <v>0.966789667896679</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.500000" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" s="0">
-        <v>0.970479704797047</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D38" s="0">
-        <v>0.966789667896679</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.500000" hidden="1">
@@ -2237,60 +2240,60 @@
         <v>0.974169741697417</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.500000" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="0">
-        <v>0.966789667896679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A44" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="0">
-        <v>0.955801104972375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A45" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="0">
-        <v>0.944751381215469</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A46" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="B46" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D46" s="0">
-        <v>0.944751381215469</v>
+        <v>0.977859778597786</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.500000" hidden="1">
@@ -2349,9 +2352,9 @@
         <v>0.950276243093922</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.500000" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" s="0" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>4</v>
@@ -2360,21 +2363,21 @@
         <v>42</v>
       </c>
       <c r="D51" s="0">
-        <v>0.944751381215469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.974169741697417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="0" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="0">
-        <v>0.939226519337016</v>
+        <v>0.970479704797047</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.500000" hidden="1">
@@ -2433,9 +2436,9 @@
         <v>0.950276243093922</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.500000" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" s="0" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>4</v>
@@ -2444,40 +2447,40 @@
         <v>47</v>
       </c>
       <c r="D57" s="0">
-        <v>0.933701657458563</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.970479704797047</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="0" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="0">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.966789667896679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="0" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D59" s="0">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.966789667896679</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="0" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>4</v>
@@ -2486,7 +2489,7 @@
         <v>35</v>
       </c>
       <c r="D60" s="0">
-        <v>0.99</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.500000" hidden="1">
@@ -2545,9 +2548,9 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.500000" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="0" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>4</v>
@@ -2556,12 +2559,12 @@
         <v>41</v>
       </c>
       <c r="D65" s="0">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="0" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>4</v>
@@ -2570,7 +2573,7 @@
         <v>42</v>
       </c>
       <c r="D66" s="0">
-        <v>0.985</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.500000" hidden="1">
@@ -2629,9 +2632,9 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.500000" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" s="0" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>4</v>
@@ -2640,49 +2643,49 @@
         <v>47</v>
       </c>
       <c r="D71" s="0">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.955801104972375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="0">
-        <v>0.898876404494382</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A73" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D73" s="0">
-        <v>0.906367041198501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.944751381215469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D74" s="0">
-        <v>0.895131086142322</v>
+        <v>0.944751381215469</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.500000" hidden="1">
@@ -2741,23 +2744,23 @@
         <v>0.891385767790262</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.500000" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" s="0">
-        <v>0.895131086142322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.944751381215469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="0" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>4</v>
@@ -2766,7 +2769,7 @@
         <v>42</v>
       </c>
       <c r="D80" s="0">
-        <v>0.902621722846441</v>
+        <v>0.942583732057416</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.500000" hidden="1">
@@ -2825,60 +2828,60 @@
         <v>0.872659176029962</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.500000" hidden="1">
+    <row r="85" spans="1:4">
       <c r="A85" s="0" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.942105263157894</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.939226519337016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.937799043062201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="0">
-        <v>0.910112359550561</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A86" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A87" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="0">
-        <v>0.994117647058823</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A88" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D88" s="0">
-        <v>0.994117647058823</v>
+        <v>0.936842105263157</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.500000" hidden="1">
@@ -2937,32 +2940,32 @@
         <v>0.994117647058823</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.500000" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" s="0" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D93" s="0">
-        <v>0.994117647058823</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.933701657458563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="0" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D94" s="0">
-        <v>0.994117647058823</v>
+        <v>0.933014354066985</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.500000" hidden="1">
@@ -3021,51 +3024,51 @@
         <v>0.994117647058823</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.500000" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" s="0" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D99" s="0">
-        <v>0.994117647058823</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.931578947368421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.931578947368421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="0">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A101" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D101" s="0">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.92822966507177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="0" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>4</v>
@@ -3074,7 +3077,7 @@
         <v>35</v>
       </c>
       <c r="D102" s="0">
-        <v>0.965</v>
+        <v>0.92822966507177</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.500000" hidden="1">
@@ -3133,23 +3136,23 @@
         <v>0.915</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.500000" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D107" s="0">
-        <v>0.965</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.926315789473684</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>4</v>
@@ -3158,7 +3161,7 @@
         <v>42</v>
       </c>
       <c r="D108" s="0">
-        <v>0.965</v>
+        <v>0.926315789473684</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.500000" hidden="1">
@@ -3217,60 +3220,60 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.500000" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="0" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D113" s="0">
-        <v>0.96</v>
+        <v>0.918660287081339</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="0" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D114" s="0">
-        <v>0.942105263157894</v>
+        <v>0.910112359550561</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="0" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D115" s="0">
-        <v>0.936842105263157</v>
+        <v>0.906367041198501</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="0" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D116" s="0">
-        <v>0.931578947368421</v>
+        <v>0.902621722846441</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.500000" hidden="1">
@@ -3331,21 +3334,21 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="0" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="0">
-        <v>0.931578947368421</v>
+        <v>0.898876404494382</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="0" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>4</v>
@@ -3354,7 +3357,7 @@
         <v>36</v>
       </c>
       <c r="D122" s="0">
-        <v>0.926315789473684</v>
+        <v>0.895131086142322</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="16.500000" hidden="1">
@@ -3415,58 +3418,58 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="0" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D127" s="0">
-        <v>0.926315789473684</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.895131086142322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="0">
+        <v>0.876923076923076</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="16.500000" hidden="1">
-      <c r="A129" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D129" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.871794871794871</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D130" s="0">
-        <v>1</v>
+        <v>0.871794871794871</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.500000" hidden="1">
@@ -3525,23 +3528,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.500000" hidden="1">
+    <row r="135" spans="1:4">
       <c r="A135" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D135" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="16.500000" hidden="1">
+        <v>0.866666666666666</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>4</v>
@@ -3550,7 +3553,7 @@
         <v>42</v>
       </c>
       <c r="D136" s="0">
-        <v>1</v>
+        <v>0.866666666666666</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="16.500000" hidden="1">
@@ -3609,9 +3612,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.500000" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>4</v>
@@ -3620,16 +3623,16 @@
         <v>47</v>
       </c>
       <c r="D141" s="0">
-        <v>1</v>
+        <v>0.866666666666666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D141">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="object"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="platinum_prompt"/>
@@ -3640,8 +3643,8 @@
         <filter val="sRE2_no_cot"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:D141">
-      <sortCondition descending="1" ref="D2:D141"/>
+    <sortState ref="A2:D142">
+      <sortCondition descending="1" ref="D2:D142"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
